--- a/sourcefiles/datacell/논리적설계표.xlsx
+++ b/sourcefiles/datacell/논리적설계표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:1,1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,26 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +694,7 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,10 +735,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -742,13 +761,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>8</v>
@@ -768,19 +787,19 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
@@ -794,19 +813,19 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>8</v>
@@ -820,19 +839,19 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -846,13 +865,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>8</v>
@@ -872,13 +891,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>8</v>
@@ -922,10 +941,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>8</v>
@@ -948,10 +967,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
@@ -969,15 +988,15 @@
         <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -992,18 +1011,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>8</v>
@@ -1021,15 +1040,15 @@
         <v>10</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>8</v>
@@ -1047,15 +1066,15 @@
         <v>9</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>12</v>
@@ -1073,15 +1092,15 @@
         <v>9</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
@@ -1098,8 +1117,8 @@
       <c r="H19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>20</v>
+      <c r="I19" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
